--- a/biology/Zoologie/Erginus_(mollusque)/Erginus_(mollusque).xlsx
+++ b/biology/Zoologie/Erginus_(mollusque)/Erginus_(mollusque).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Erginus est un genre de mollusques de la classe des gastéropodes.
@@ -514,15 +526,54 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Selon World Register of Marine Species                               (24 juil. 2011)[1]
-Erginus apicinus (Dall, 1879)
+          <t>Selon World Register of Marine Species                               (24 juil. 2011)[1]</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Erginus apicinus (Dall, 1879)
 Erginus galkini Chernyshev &amp; Chernova, 2002
 Erginus moskalevi (Golikov &amp; Kussakin, 1972)
 Erginus puniceus Lindberg, 1988
 Erginus rubellus (O. Fabricius, 1780)
-Erginus sybariticus (Dall, 1871)
-Selon ITIS      (24 juil. 2011)[2]
-Erginus apicinus (Dall, 1879)
+Erginus sybariticus (Dall, 1871)</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Erginus_(mollusque)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Erginus_(mollusque)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Selon ITIS      (24 juil. 2011)[2]</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Erginus apicinus (Dall, 1879)
 Erginus moskalevi (Golikov &amp; Kussakin, 1972)
 Erginus puniceus Lindberg, 1988
 Erginus rubellus (Fabricius, 1780)
